--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780810BF-0F71-834B-9A2F-94A29020F373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F93B912-FADF-4548-9014-8551CAE68E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14720" yWindow="8980" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="200" yWindow="1760" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -74,90 +74,15 @@
     <t>Link</t>
   </si>
   <si>
-    <t>/chapters/chapter1/</t>
-  </si>
-  <si>
-    <t>Chatper 2 - Summarizing Data</t>
-  </si>
-  <si>
-    <t>Chapter 3 - Probability</t>
-  </si>
-  <si>
-    <t>Chatper 5 - Foundation for Inference</t>
-  </si>
-  <si>
-    <t>Chapter 6 - Inference for Categorical Data</t>
-  </si>
-  <si>
-    <t>Chapter 7 - Inference for Numerical Data</t>
-  </si>
-  <si>
-    <t>/chatpers/bayesian/</t>
-  </si>
-  <si>
-    <t>Intro to Bayesian Analysis</t>
-  </si>
-  <si>
-    <t>/assesssments/final/</t>
-  </si>
-  <si>
-    <t>Final Exam</t>
-  </si>
-  <si>
-    <t>/chatpers/chapter2/</t>
-  </si>
-  <si>
-    <t>/chapters/chapter3</t>
-  </si>
-  <si>
-    <t>/chapters/chapter4</t>
-  </si>
-  <si>
-    <t>/chapters/chapter6</t>
-  </si>
-  <si>
-    <t>/chapters/chapter5</t>
-  </si>
-  <si>
     <t>/course-overview/meetups</t>
   </si>
   <si>
-    <t>/chapters/chapter7</t>
-  </si>
-  <si>
-    <t>/chapters/chapter8</t>
-  </si>
-  <si>
-    <t>/chapters/chapter9</t>
-  </si>
-  <si>
-    <t>Chapter 9 - Multiple &amp; Logistic Regression</t>
-  </si>
-  <si>
-    <t>Chapter 4 - Distributions</t>
-  </si>
-  <si>
-    <t>Chapter 8 - Linear Regression</t>
-  </si>
-  <si>
-    <t>Chapter 1 - Intro to Data, R, and RStudio</t>
-  </si>
-  <si>
-    <t>Midterm</t>
-  </si>
-  <si>
-    <t>/assesssments/midterm/</t>
-  </si>
-  <si>
     <t>Youtube</t>
   </si>
   <si>
     <t>Slides</t>
   </si>
   <si>
-    <t>Thanksgiving Break</t>
-  </si>
-  <si>
     <t>5:30 pm</t>
   </si>
   <si>
@@ -165,6 +90,66 @@
   </si>
   <si>
     <t>NO CLASS - Passover Recess</t>
+  </si>
+  <si>
+    <t>Passover Recess</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
+  </si>
+  <si>
+    <t>Readings</t>
+  </si>
+  <si>
+    <t>Assignments</t>
+  </si>
+  <si>
+    <t>Introduction to R, Rstudio, and the course</t>
+  </si>
+  <si>
+    <t>[Intro to R]()</t>
   </si>
 </sst>
 </file>
@@ -221,7 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -247,6 +232,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -564,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -596,10 +582,10 @@
         <v>11</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -610,10 +596,16 @@
         <v>45307</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -621,13 +613,16 @@
         <v>45314</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G3" s="7"/>
     </row>
@@ -636,13 +631,16 @@
         <v>45321</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -650,13 +648,16 @@
         <v>45328</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -664,13 +665,16 @@
         <v>45335</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F6" s="10"/>
       <c r="H6" s="7"/>
@@ -680,13 +684,16 @@
         <v>45342</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H7" s="7"/>
     </row>
@@ -695,13 +702,16 @@
         <v>45349</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H8" s="6"/>
     </row>
@@ -710,13 +720,16 @@
         <v>45356</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -725,13 +738,16 @@
         <v>45363</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H10" s="8"/>
     </row>
@@ -740,13 +756,16 @@
         <v>45370</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -755,13 +774,16 @@
         <v>45377</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -770,13 +792,16 @@
         <v>45384</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -785,13 +810,16 @@
         <v>45391</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -800,13 +828,16 @@
         <v>45398</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -815,7 +846,7 @@
         <v>45405</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H16" s="10"/>
     </row>
@@ -824,7 +855,7 @@
         <v>45412</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -833,13 +864,16 @@
         <v>45419</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H18" s="6"/>
     </row>
@@ -860,20 +894,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
     <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -886,185 +922,195 @@
       <c r="D1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>45163</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45172</v>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>45307</v>
+      </c>
+      <c r="B2" s="11">
+        <v>45312</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>45173</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45186</v>
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>45313</v>
+      </c>
+      <c r="B3" s="11">
+        <v>45319</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>45320</v>
+      </c>
+      <c r="B4" s="11">
+        <v>45326</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>45327</v>
+      </c>
+      <c r="B5" s="11">
+        <v>45340</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>45187</v>
-      </c>
-      <c r="B4" s="2">
-        <v>45193</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>45333</v>
+      </c>
+      <c r="B6" s="11">
+        <v>45340</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>45194</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45200</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>45341</v>
+      </c>
+      <c r="B7" s="11">
+        <v>45347</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>45348</v>
+      </c>
+      <c r="B8" s="11">
+        <v>45354</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>45355</v>
+      </c>
+      <c r="B9" s="11">
+        <v>45361</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>45362</v>
+      </c>
+      <c r="B10" s="11">
+        <v>45368</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>45369</v>
+      </c>
+      <c r="B11" s="11">
+        <v>45375</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>45376</v>
+      </c>
+      <c r="B12" s="11">
+        <v>45382</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>45383</v>
+      </c>
+      <c r="B13" s="11">
+        <v>45389</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>45390</v>
+      </c>
+      <c r="B14" s="11">
+        <v>45396</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>45397</v>
+      </c>
+      <c r="B15" s="11">
+        <v>45403</v>
+      </c>
+      <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>45201</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45207</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>45210</v>
-      </c>
-      <c r="B7" s="2">
-        <v>45214</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>45208</v>
-      </c>
-      <c r="B8" s="2">
-        <v>45214</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>45215</v>
-      </c>
-      <c r="B9" s="2">
-        <v>45221</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>45222</v>
-      </c>
-      <c r="B10" s="2">
-        <v>45235</v>
-      </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>45404</v>
+      </c>
+      <c r="B16" s="11">
+        <v>45412</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>45413</v>
+      </c>
+      <c r="B17" s="11">
+        <v>45419</v>
+      </c>
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>45252</v>
-      </c>
-      <c r="B11" s="2">
-        <v>45256</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>45236</v>
-      </c>
-      <c r="B12" s="2">
-        <v>45249</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>45257</v>
-      </c>
-      <c r="B13" s="2">
-        <v>45263</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>45266</v>
-      </c>
-      <c r="B14" s="2">
-        <v>45270</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F93B912-FADF-4548-9014-8551CAE68E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3AF240-04BA-4D4C-BCC0-DAE16C743870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="1760" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="200" yWindow="1740" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -149,7 +149,73 @@
     <t>Introduction to R, Rstudio, and the course</t>
   </si>
   <si>
-    <t>[Intro to R]()</t>
+    <t>IMStat Chapter 1</t>
+  </si>
+  <si>
+    <t>Data Visualization</t>
+  </si>
+  <si>
+    <t>[R4DS Chapter 3[(https://r4ds.had.co.nz/data-visualisation.html)</t>
+  </si>
+  <si>
+    <t>[Intro to R Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/01_intro_to_r.zip)</t>
+  </si>
+  <si>
+    <t>Introduction to Data</t>
+  </si>
+  <si>
+    <t>Intro to Data Lab</t>
+  </si>
+  <si>
+    <t>IMStat Chapters 2 and 3</t>
+  </si>
+  <si>
+    <t>Bivariate Regression</t>
+  </si>
+  <si>
+    <t>IMStat Chapter 7</t>
+  </si>
+  <si>
+    <t>IMStat Chapter 8</t>
+  </si>
+  <si>
+    <t>Regression Lab</t>
+  </si>
+  <si>
+    <t>Multiple Regression</t>
+  </si>
+  <si>
+    <t>Maximum Likelihood Estimation and Logistic Regression</t>
+  </si>
+  <si>
+    <t>IMStat Chapter 9</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>OI Chapter 3</t>
+  </si>
+  <si>
+    <t>Probability Lab</t>
+  </si>
+  <si>
+    <t>Inference for Categorical Data</t>
+  </si>
+  <si>
+    <t>IMStat Chapters 16, 17, and 18</t>
+  </si>
+  <si>
+    <t>Inference for Numerical Data</t>
+  </si>
+  <si>
+    <t>IMStat Chapters 19, 20, and 21</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>IMStat Chapter 22</t>
   </si>
 </sst>
 </file>
@@ -896,16 +962,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
@@ -939,11 +1005,14 @@
       <c r="C2" t="s">
         <v>36</v>
       </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
       <c r="F2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>45313</v>
       </c>
@@ -951,7 +1020,13 @@
         <v>45319</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -962,7 +1037,10 @@
         <v>45326</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -973,7 +1051,13 @@
         <v>45340</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -984,7 +1068,10 @@
         <v>45340</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -995,7 +1082,10 @@
         <v>45347</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1006,7 +1096,13 @@
         <v>45354</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1017,7 +1113,10 @@
         <v>45361</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1028,7 +1127,10 @@
         <v>45368</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1039,7 +1141,10 @@
         <v>45375</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3AF240-04BA-4D4C-BCC0-DAE16C743870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFB3EFB-3055-B445-9BAD-6E17D90ECC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="1740" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -74,6 +74,9 @@
     <t>Link</t>
   </si>
   <si>
+    <t>Final Exam</t>
+  </si>
+  <si>
     <t>/course-overview/meetups</t>
   </si>
   <si>
@@ -164,9 +167,6 @@
     <t>Introduction to Data</t>
   </si>
   <si>
-    <t>Intro to Data Lab</t>
-  </si>
-  <si>
     <t>IMStat Chapters 2 and 3</t>
   </si>
   <si>
@@ -179,9 +179,6 @@
     <t>IMStat Chapter 8</t>
   </si>
   <si>
-    <t>Regression Lab</t>
-  </si>
-  <si>
     <t>Multiple Regression</t>
   </si>
   <si>
@@ -216,6 +213,27 @@
   </si>
   <si>
     <t>IMStat Chapter 22</t>
+  </si>
+  <si>
+    <t>[Intro to Data Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/02_intro_to_data.zip)</t>
+  </si>
+  <si>
+    <t>Poster Session</t>
+  </si>
+  <si>
+    <t>Foundation for Inference / Central Limit Theorem</t>
+  </si>
+  <si>
+    <t>Introduction to Predictive Modeling</t>
+  </si>
+  <si>
+    <t>Bayesian Analysis</t>
+  </si>
+  <si>
+    <t>[Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/08_simple_regression.zip)</t>
+  </si>
+  <si>
+    <t>[Multiple Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/09_multiple_regression.zip)</t>
   </si>
 </sst>
 </file>
@@ -648,10 +666,10 @@
         <v>11</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -662,16 +680,16 @@
         <v>45307</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -679,16 +697,16 @@
         <v>45314</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="7"/>
     </row>
@@ -697,16 +715,16 @@
         <v>45321</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -714,16 +732,16 @@
         <v>45328</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -731,16 +749,16 @@
         <v>45335</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="10"/>
       <c r="H6" s="7"/>
@@ -750,16 +768,16 @@
         <v>45342</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7"/>
     </row>
@@ -768,16 +786,16 @@
         <v>45349</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" s="6"/>
     </row>
@@ -786,16 +804,16 @@
         <v>45356</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -804,16 +822,16 @@
         <v>45363</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" s="8"/>
     </row>
@@ -822,16 +840,16 @@
         <v>45370</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -840,16 +858,16 @@
         <v>45377</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -858,16 +876,16 @@
         <v>45384</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -876,16 +894,16 @@
         <v>45391</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -894,16 +912,16 @@
         <v>45398</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -912,7 +930,7 @@
         <v>45405</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H16" s="10"/>
     </row>
@@ -921,7 +939,7 @@
         <v>45412</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -930,16 +948,16 @@
         <v>45419</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" s="6"/>
     </row>
@@ -963,14 +981,14 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="1" max="2" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
     <col min="5" max="5" width="30.33203125" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
@@ -989,10 +1007,10 @@
         <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1003,16 +1021,16 @@
         <v>45312</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>45313</v>
       </c>
@@ -1020,13 +1038,13 @@
         <v>45319</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>42</v>
+      <c r="F3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1037,10 +1055,10 @@
         <v>45326</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1057,7 +1075,7 @@
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1068,10 +1086,13 @@
         <v>45340</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
         <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1082,10 +1103,10 @@
         <v>45347</v>
       </c>
       <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
         <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1096,13 +1117,13 @@
         <v>45354</v>
       </c>
       <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
         <v>51</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>52</v>
-      </c>
-      <c r="F8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1113,10 +1134,7 @@
         <v>45361</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1127,10 +1145,10 @@
         <v>45368</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1141,10 +1159,10 @@
         <v>45375</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1155,7 +1173,10 @@
         <v>45382</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1166,7 +1187,7 @@
         <v>45389</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1177,7 +1198,7 @@
         <v>45396</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1188,7 +1209,7 @@
         <v>45403</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1199,7 +1220,7 @@
         <v>45412</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1210,7 +1231,7 @@
         <v>45419</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFB3EFB-3055-B445-9BAD-6E17D90ECC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A3A994-4CF7-8648-B270-652F4EDE96D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="1740" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -161,9 +161,6 @@
     <t>[R4DS Chapter 3[(https://r4ds.had.co.nz/data-visualisation.html)</t>
   </si>
   <si>
-    <t>[Intro to R Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/01_intro_to_r.zip)</t>
-  </si>
-  <si>
     <t>Introduction to Data</t>
   </si>
   <si>
@@ -234,6 +231,10 @@
   </si>
   <si>
     <t>[Multiple Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/09_multiple_regression.zip)</t>
+  </si>
+  <si>
+    <t>[Formative Assessment](https://forms.gle/PJZSMSYQsjYAAvY27)  
+[Intro to R Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/01_intro_to_r.zip)</t>
   </si>
 </sst>
 </file>
@@ -981,7 +982,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1013,7 +1014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>45307</v>
       </c>
@@ -1026,8 +1027,8 @@
       <c r="E2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
-        <v>41</v>
+      <c r="F2" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1038,13 +1039,13 @@
         <v>45319</v>
       </c>
       <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1069,13 +1070,13 @@
         <v>45340</v>
       </c>
       <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1086,13 +1087,13 @@
         <v>45340</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1103,10 +1104,10 @@
         <v>45347</v>
       </c>
       <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
         <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1117,13 +1118,13 @@
         <v>45354</v>
       </c>
       <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
         <v>50</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1134,7 +1135,7 @@
         <v>45361</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1145,10 +1146,10 @@
         <v>45368</v>
       </c>
       <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
         <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1159,10 +1160,10 @@
         <v>45375</v>
       </c>
       <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
         <v>55</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1173,10 +1174,10 @@
         <v>45382</v>
       </c>
       <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
         <v>57</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1187,7 +1188,7 @@
         <v>45389</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1198,7 +1199,7 @@
         <v>45396</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1209,7 +1210,7 @@
         <v>45403</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A3A994-4CF7-8648-B270-652F4EDE96D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3ABE40-B59C-CD47-8D80-DDB22F696630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="1740" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -152,39 +152,21 @@
     <t>Introduction to R, Rstudio, and the course</t>
   </si>
   <si>
-    <t>IMStat Chapter 1</t>
-  </si>
-  <si>
     <t>Data Visualization</t>
   </si>
   <si>
-    <t>[R4DS Chapter 3[(https://r4ds.had.co.nz/data-visualisation.html)</t>
-  </si>
-  <si>
     <t>Introduction to Data</t>
   </si>
   <si>
-    <t>IMStat Chapters 2 and 3</t>
-  </si>
-  <si>
     <t>Bivariate Regression</t>
   </si>
   <si>
-    <t>IMStat Chapter 7</t>
-  </si>
-  <si>
-    <t>IMStat Chapter 8</t>
-  </si>
-  <si>
     <t>Multiple Regression</t>
   </si>
   <si>
     <t>Maximum Likelihood Estimation and Logistic Regression</t>
   </si>
   <si>
-    <t>IMStat Chapter 9</t>
-  </si>
-  <si>
     <t>Probability</t>
   </si>
   <si>
@@ -197,19 +179,10 @@
     <t>Inference for Categorical Data</t>
   </si>
   <si>
-    <t>IMStat Chapters 16, 17, and 18</t>
-  </si>
-  <si>
     <t>Inference for Numerical Data</t>
   </si>
   <si>
-    <t>IMStat Chapters 19, 20, and 21</t>
-  </si>
-  <si>
     <t>ANOVA</t>
-  </si>
-  <si>
-    <t>IMStat Chapter 22</t>
   </si>
   <si>
     <t>[Intro to Data Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/02_intro_to_data.zip)</t>
@@ -235,6 +208,33 @@
   <si>
     <t>[Formative Assessment](https://forms.gle/PJZSMSYQsjYAAvY27)  
 [Intro to R Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/01_intro_to_r.zip)</t>
+  </si>
+  <si>
+    <t>IMStat Chapters [2](https://openintro-ims.netlify.app/data-design) and [3](https://openintro-ims.netlify.app/data-applications)</t>
+  </si>
+  <si>
+    <t>IMStat [Chapter 1](https://openintro-ims.netlify.app/data-hello)</t>
+  </si>
+  <si>
+    <t>IMStat [Chapter 7](https://openintro-ims.netlify.app/model-slr)</t>
+  </si>
+  <si>
+    <t>IMStat [Chapter 8](https://openintro-ims.netlify.app/model-mlr)</t>
+  </si>
+  <si>
+    <t>IMStat [Chapter 9](https://openintro-ims.netlify.app/model-logistic)</t>
+  </si>
+  <si>
+    <t>IMStat Chapters [16](https://openintro-ims.netlify.app/inference-one-prop), [17](https://openintro-ims.netlify.app/inference-two-props), and [18](https://openintro-ims.netlify.app/inference-tables)</t>
+  </si>
+  <si>
+    <t>IMStat Chapters [19](https://openintro-ims.netlify.app/inference-one-mean), [20](https://openintro-ims.netlify.app/inference-two-means), and [21](https://openintro-ims.netlify.app/inference-paired-means)</t>
+  </si>
+  <si>
+    <t>IMStat [Chapter 22](https://openintro-ims.netlify.app/inference-many-means)</t>
+  </si>
+  <si>
+    <t>R4DS [Chapter 3](https://r4ds.had.co.nz/data-visualisation.html)</t>
   </si>
 </sst>
 </file>
@@ -982,7 +982,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1025,10 +1025,10 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1039,13 +1039,13 @@
         <v>45319</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1056,10 +1056,10 @@
         <v>45326</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1070,13 +1070,13 @@
         <v>45340</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1087,13 +1087,13 @@
         <v>45340</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1104,10 +1104,10 @@
         <v>45347</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1118,13 +1118,13 @@
         <v>45354</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1135,7 +1135,7 @@
         <v>45361</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1146,10 +1146,10 @@
         <v>45368</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1160,10 +1160,10 @@
         <v>45375</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1174,10 +1174,10 @@
         <v>45382</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1188,7 +1188,7 @@
         <v>45389</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1199,7 +1199,7 @@
         <v>45396</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1210,7 +1210,7 @@
         <v>45403</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3ABE40-B59C-CD47-8D80-DDB22F696630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485AEC49-E81B-0441-8FB7-C03F2CC90A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="1740" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="14140" yWindow="7780" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -173,9 +173,6 @@
     <t>OI Chapter 3</t>
   </si>
   <si>
-    <t>Probability Lab</t>
-  </si>
-  <si>
     <t>Inference for Categorical Data</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t>ANOVA</t>
   </si>
   <si>
-    <t>[Intro to Data Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/02_intro_to_data.zip)</t>
-  </si>
-  <si>
     <t>Poster Session</t>
   </si>
   <si>
@@ -198,12 +192,6 @@
   </si>
   <si>
     <t>Bayesian Analysis</t>
-  </si>
-  <si>
-    <t>[Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/08_simple_regression.zip)</t>
-  </si>
-  <si>
-    <t>[Multiple Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/09_multiple_regression.zip)</t>
   </si>
   <si>
     <t>[Formative Assessment](https://forms.gle/PJZSMSYQsjYAAvY27)  
@@ -235,6 +223,29 @@
   </si>
   <si>
     <t>R4DS [Chapter 3](https://r4ds.had.co.nz/data-visualisation.html)</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>[Intro to Data Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/02_intro_to_data.zip)  
+Homework: TBD</t>
+  </si>
+  <si>
+    <t>Probability Lab  
+Homework: TBD</t>
+  </si>
+  <si>
+    <t>[Multiple Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/09_multiple_regression.zip)  
+Homework: TBD</t>
+  </si>
+  <si>
+    <t>Logistic Regression Lab
+Homework: TBD</t>
+  </si>
+  <si>
+    <t>[Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/08_simple_regression.zip)  
+Homework: TBD</t>
   </si>
 </sst>
 </file>
@@ -979,265 +990,319 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="2" max="3" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="177.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="136" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+    <row r="2" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
         <v>45307</v>
       </c>
-      <c r="B2" s="11">
+      <c r="C2" s="11">
         <v>45312</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>45313</v>
+      </c>
+      <c r="C3" s="11">
+        <v>45319</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>45320</v>
+      </c>
+      <c r="C4" s="11">
+        <v>45326</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>45327</v>
+      </c>
+      <c r="C5" s="11">
+        <v>45340</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>45333</v>
+      </c>
+      <c r="C6" s="11">
+        <v>45340</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>45341</v>
+      </c>
+      <c r="C7" s="11">
+        <v>45347</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>45348</v>
+      </c>
+      <c r="C8" s="11">
+        <v>45354</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>45355</v>
+      </c>
+      <c r="C9" s="11">
+        <v>45361</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>45362</v>
+      </c>
+      <c r="C10" s="11">
+        <v>45368</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
-        <v>45313</v>
-      </c>
-      <c r="B3" s="11">
-        <v>45319</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
-        <v>45320</v>
-      </c>
-      <c r="B4" s="11">
-        <v>45326</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>45327</v>
-      </c>
-      <c r="B5" s="11">
-        <v>45340</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>45369</v>
+      </c>
+      <c r="C11" s="11">
+        <v>45375</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
         <v>59</v>
       </c>
-      <c r="F5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
-        <v>45333</v>
-      </c>
-      <c r="B6" s="11">
-        <v>45340</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>45376</v>
+      </c>
+      <c r="C12" s="11">
+        <v>45382</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
         <v>60</v>
       </c>
-      <c r="F6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
-        <v>45341</v>
-      </c>
-      <c r="B7" s="11">
-        <v>45347</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
-        <v>45348</v>
-      </c>
-      <c r="B8" s="11">
-        <v>45354</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
-        <v>45355</v>
-      </c>
-      <c r="B9" s="11">
-        <v>45361</v>
-      </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>45383</v>
+      </c>
+      <c r="C13" s="11">
+        <v>45389</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>45390</v>
+      </c>
+      <c r="C14" s="11">
+        <v>45396</v>
+      </c>
+      <c r="D14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <v>45362</v>
-      </c>
-      <c r="B10" s="11">
-        <v>45368</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>45369</v>
-      </c>
-      <c r="B11" s="11">
-        <v>45375</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <v>45376</v>
-      </c>
-      <c r="B12" s="11">
-        <v>45382</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>45397</v>
+      </c>
+      <c r="C15" s="11">
+        <v>45403</v>
+      </c>
+      <c r="D15" t="s">
         <v>48</v>
       </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
-        <v>45383</v>
-      </c>
-      <c r="B13" s="11">
-        <v>45389</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <v>45390</v>
-      </c>
-      <c r="B14" s="11">
-        <v>45396</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
-        <v>45397</v>
-      </c>
-      <c r="B15" s="11">
-        <v>45403</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="11">
         <v>45404</v>
       </c>
-      <c r="B16" s="11">
+      <c r="C16" s="11">
         <v>45412</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11">
         <v>45413</v>
       </c>
-      <c r="B17" s="11">
+      <c r="C17" s="11">
         <v>45419</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485AEC49-E81B-0441-8FB7-C03F2CC90A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180F913A-1977-1441-A17F-F51F0A6FE221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14140" yWindow="7780" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="200" yWindow="1740" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -149,9 +149,6 @@
     <t>Assignments</t>
   </si>
   <si>
-    <t>Introduction to R, Rstudio, and the course</t>
-  </si>
-  <si>
     <t>Data Visualization</t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   <si>
     <t>[Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/08_simple_regression.zip)  
 Homework: TBD</t>
+  </si>
+  <si>
+    <t>[Introduction to R, Rstudio, and the course](https://github.com/jbryer/DAV5300-2024-Spring/blob/master/slides/2024-01-16-Intro_to_Course.pdf)</t>
   </si>
 </sst>
 </file>
@@ -993,10 +993,10 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1010,7 +1010,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -1042,13 +1042,13 @@
         <v>45312</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1062,13 +1062,13 @@
         <v>45319</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1082,10 +1082,10 @@
         <v>45326</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1099,13 +1099,13 @@
         <v>45340</v>
       </c>
       <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1119,13 +1119,13 @@
         <v>45340</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1139,13 +1139,13 @@
         <v>45347</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1159,13 +1159,13 @@
         <v>45354</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1179,7 +1179,7 @@
         <v>45361</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1193,10 +1193,10 @@
         <v>45368</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1210,10 +1210,10 @@
         <v>45375</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1227,10 +1227,10 @@
         <v>45382</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1244,7 +1244,7 @@
         <v>45389</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1258,7 +1258,7 @@
         <v>45396</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1272,7 +1272,7 @@
         <v>45403</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180F913A-1977-1441-A17F-F51F0A6FE221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68986F19-BF1A-9D43-BEFA-84BE5EA0F0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="1740" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -245,7 +245,10 @@
 Homework: TBD</t>
   </si>
   <si>
-    <t>[Introduction to R, Rstudio, and the course](https://github.com/jbryer/DAV5300-2024-Spring/blob/master/slides/2024-01-16-Intro_to_Course.pdf)</t>
+    <t>Introduction to R, Rstudio, and the course</t>
+  </si>
+  <si>
+    <t>https://github.com/jbryer/DAV5300-2024-Spring/blob/master/slides/2024-01-16-Intro_to_Course.pdf</t>
   </si>
 </sst>
 </file>
@@ -993,10 +996,10 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1044,6 +1047,9 @@
       <c r="D2" t="s">
         <v>67</v>
       </c>
+      <c r="E2" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="F2" t="s">
         <v>53</v>
       </c>
@@ -1305,6 +1311,9 @@
       <c r="C18" s="11"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{88017075-5373-454A-B1D0-C8C79B8564EC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68986F19-BF1A-9D43-BEFA-84BE5EA0F0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0059B5D8-ED5C-214A-AE3D-F70BD7977597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="1740" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="10400" yWindow="5160" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -225,10 +225,6 @@
     <t>Week</t>
   </si>
   <si>
-    <t>[Intro to Data Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/02_intro_to_data.zip)  
-Homework: TBD</t>
-  </si>
-  <si>
     <t>Probability Lab  
 Homework: TBD</t>
   </si>
@@ -249,6 +245,10 @@
   </si>
   <si>
     <t>https://github.com/jbryer/DAV5300-2024-Spring/blob/master/slides/2024-01-16-Intro_to_Course.pdf</t>
+  </si>
+  <si>
+    <t>[Intro to Data Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/02_intro_to_data.zip)  
+Homework: 1.4, 1.10, 2.4, 2.16, 2.24</t>
   </si>
 </sst>
 </file>
@@ -996,10 +996,10 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1045,10 +1045,10 @@
         <v>45312</v>
       </c>
       <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -1057,7 +1057,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>52</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1111,7 +1111,7 @@
         <v>43</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1131,7 +1131,7 @@
         <v>55</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1151,7 +1151,7 @@
         <v>56</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1171,7 +1171,7 @@
         <v>54</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0059B5D8-ED5C-214A-AE3D-F70BD7977597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB644EA-0ACE-654D-B7AF-ED6E574FE0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10400" yWindow="5160" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -147,12 +147,6 @@
   </si>
   <si>
     <t>Assignments</t>
-  </si>
-  <si>
-    <t>Data Visualization</t>
-  </si>
-  <si>
-    <t>Introduction to Data</t>
   </si>
   <si>
     <t>Bivariate Regression</t>
@@ -195,9 +189,6 @@
 [Intro to R Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/01_intro_to_r.zip)</t>
   </si>
   <si>
-    <t>IMStat Chapters [2](https://openintro-ims.netlify.app/data-design) and [3](https://openintro-ims.netlify.app/data-applications)</t>
-  </si>
-  <si>
     <t>IMStat [Chapter 1](https://openintro-ims.netlify.app/data-hello)</t>
   </si>
   <si>
@@ -219,28 +210,13 @@
     <t>IMStat [Chapter 22](https://openintro-ims.netlify.app/inference-many-means)</t>
   </si>
   <si>
-    <t>R4DS [Chapter 3](https://r4ds.had.co.nz/data-visualisation.html)</t>
-  </si>
-  <si>
     <t>Week</t>
-  </si>
-  <si>
-    <t>Probability Lab  
-Homework: TBD</t>
-  </si>
-  <si>
-    <t>[Multiple Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/09_multiple_regression.zip)  
-Homework: TBD</t>
   </si>
   <si>
     <t>Logistic Regression Lab
 Homework: TBD</t>
   </si>
   <si>
-    <t>[Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/08_simple_regression.zip)  
-Homework: TBD</t>
-  </si>
-  <si>
     <t>Introduction to R, Rstudio, and the course</t>
   </si>
   <si>
@@ -249,6 +225,40 @@
   <si>
     <t>[Intro to Data Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/02_intro_to_data.zip)  
 Homework: 1.4, 1.10, 2.4, 2.16, 2.24</t>
+  </si>
+  <si>
+    <t>Introduction to Data and Data Visualization</t>
+  </si>
+  <si>
+    <t>IMStat Chapters [2](https://openintro-ims.netlify.app/data-design) and [3](https://openintro-ims.netlify.app/data-applications)  
+R4DS [Chapter 3](https://r4ds.had.co.nz/data-visualisation.html)</t>
+  </si>
+  <si>
+    <t>IMStat Chapters [11](https://openintro-ims.netlify.app/foundations-randomization), [12](https://openintro-ims.netlify.app/foundations-bootstrapping), and [13](https://openintro-ims.netlify.app/foundations-mathematical)</t>
+  </si>
+  <si>
+    <t>[Probability Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/03_probability.zip)  
+Homework: TBD</t>
+  </si>
+  <si>
+    <t>[Multiple Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/08_multiple_regression.zip)  
+Homework: TBD</t>
+  </si>
+  <si>
+    <t>[Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/07_simple_linear_regression.zip)  
+Homework: TBD</t>
+  </si>
+  <si>
+    <t>[Foundation for Inference Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/11_foundations_for_inference.zip) (*note there are two parts*)</t>
+  </si>
+  <si>
+    <t>[Inference for Categorical Data Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/16_inference_for_categorial_data.zip)</t>
+  </si>
+  <si>
+    <t>[Inference for Numerical Data Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/19_inference_for_numerical_data.zip)</t>
+  </si>
+  <si>
+    <t>[ANOVA Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/22_ANOVA.zip)</t>
   </si>
 </sst>
 </file>
@@ -650,7 +660,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -996,24 +1006,24 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" customWidth="1"/>
-    <col min="6" max="6" width="177.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="50.33203125" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -1045,16 +1055,16 @@
         <v>45312</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="119" x14ac:dyDescent="0.2">
@@ -1068,13 +1078,13 @@
         <v>45319</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>52</v>
+        <v>62</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1087,14 +1097,8 @@
       <c r="C4" s="11">
         <v>45326</v>
       </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1105,13 +1109,13 @@
         <v>45340</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1125,16 +1129,16 @@
         <v>45340</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1145,16 +1149,16 @@
         <v>45347</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1168,13 +1172,13 @@
         <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1185,10 +1189,16 @@
         <v>45361</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1199,13 +1209,16 @@
         <v>45368</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1216,13 +1229,16 @@
         <v>45375</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1233,10 +1249,13 @@
         <v>45382</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1250,7 +1269,7 @@
         <v>45389</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1264,7 +1283,7 @@
         <v>45396</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1278,7 +1297,7 @@
         <v>45403</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB644EA-0ACE-654D-B7AF-ED6E574FE0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BB1370-65F6-DF41-BD70-C128855AE6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>[ANOVA Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/22_ANOVA.zip)</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>https://github.com/jbryer/DAV5300-2024-Spring/blob/master/slides/2024-01-23-Intro_to_Data.pdf</t>
   </si>
 </sst>
 </file>
@@ -1006,10 +1012,10 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1080,6 +1086,9 @@
       <c r="D3" t="s">
         <v>62</v>
       </c>
+      <c r="E3" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>63</v>
       </c>
@@ -1087,7 +1096,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1096,6 +1105,15 @@
       </c>
       <c r="C4" s="11">
         <v>45326</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1109,13 +1127,13 @@
         <v>45340</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1129,16 +1147,16 @@
         <v>45340</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1149,16 +1167,16 @@
         <v>45347</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1169,13 +1187,7 @@
         <v>45354</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1332,6 +1344,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{88017075-5373-454A-B1D0-C8C79B8564EC}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{772AC442-940E-AE41-8A04-291AD6FE3798}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BB1370-65F6-DF41-BD70-C128855AE6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA058E4-9601-1342-BE00-1C78D2F73A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -213,10 +213,6 @@
     <t>Week</t>
   </si>
   <si>
-    <t>Logistic Regression Lab
-Homework: TBD</t>
-  </si>
-  <si>
     <t>Introduction to R, Rstudio, and the course</t>
   </si>
   <si>
@@ -265,6 +261,10 @@
   </si>
   <si>
     <t>https://github.com/jbryer/DAV5300-2024-Spring/blob/master/slides/2024-01-23-Intro_to_Data.pdf</t>
+  </si>
+  <si>
+    <t>[Logistic Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/09_logistic_regression.zip)
+Homework: TBD</t>
   </si>
 </sst>
 </file>
@@ -1012,10 +1012,10 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1061,10 +1061,10 @@
         <v>45312</v>
       </c>
       <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1084,16 +1084,16 @@
         <v>45319</v>
       </c>
       <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1113,7 +1113,7 @@
         <v>41</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1133,7 +1133,7 @@
         <v>51</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1153,10 +1153,10 @@
         <v>52</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>53</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>45354</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1204,10 +1204,10 @@
         <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -1227,7 +1227,7 @@
         <v>54</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -1247,7 +1247,7 @@
         <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -1267,7 +1267,7 @@
         <v>56</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA058E4-9601-1342-BE00-1C78D2F73A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04999D4D-0F69-9C47-B3DF-FA6C51262128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="7520" yWindow="1560" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -233,10 +233,6 @@
     <t>IMStat Chapters [11](https://openintro-ims.netlify.app/foundations-randomization), [12](https://openintro-ims.netlify.app/foundations-bootstrapping), and [13](https://openintro-ims.netlify.app/foundations-mathematical)</t>
   </si>
   <si>
-    <t>[Probability Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/03_probability.zip)  
-Homework: TBD</t>
-  </si>
-  <si>
     <t>[Multiple Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/08_multiple_regression.zip)  
 Homework: TBD</t>
   </si>
@@ -265,6 +261,10 @@
   <si>
     <t>[Logistic Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/09_logistic_regression.zip)
 Homework: TBD</t>
+  </si>
+  <si>
+    <t>[Probability Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/03_probability.zip)  
+Homework (Note these are from the OpenIntro Statistics book): 3.7, 3.17, 3.25, 3.33, 3.37</t>
   </si>
 </sst>
 </file>
@@ -1012,10 +1012,10 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1087,7 +1087,7 @@
         <v>61</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>62</v>
@@ -1096,7 +1096,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>41</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1133,7 +1133,7 @@
         <v>51</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1153,7 +1153,7 @@
         <v>52</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1173,7 +1173,7 @@
         <v>53</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>45354</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1207,7 +1207,7 @@
         <v>63</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -1227,7 +1227,7 @@
         <v>54</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -1247,7 +1247,7 @@
         <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -1267,7 +1267,7 @@
         <v>56</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04999D4D-0F69-9C47-B3DF-FA6C51262128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF006E5C-3E7E-8F4E-9F86-BC3906BEE55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7520" yWindow="1560" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -253,9 +253,6 @@
     <t>[ANOVA Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/22_ANOVA.zip)</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>https://github.com/jbryer/DAV5300-2024-Spring/blob/master/slides/2024-01-23-Intro_to_Data.pdf</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
   <si>
     <t>[Probability Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/03_probability.zip)  
 Homework (Note these are from the OpenIntro Statistics book): 3.7, 3.17, 3.25, 3.33, 3.37</t>
+  </si>
+  <si>
+    <t>There will be no class on February 27th.</t>
   </si>
 </sst>
 </file>
@@ -1012,10 +1012,10 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1087,7 +1087,7 @@
         <v>61</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>62</v>
@@ -1113,7 +1113,7 @@
         <v>41</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1173,7 +1173,7 @@
         <v>53</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>45354</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="102" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF006E5C-3E7E-8F4E-9F86-BC3906BEE55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5400D4A4-BB7C-EA41-A286-B67094500E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>There will be no class on February 27th.</t>
+  </si>
+  <si>
+    <t>https://github.com/jbryer/DAV5300-2024-Spring/blob/master/slides/2024-01-30-Probablity.pdf</t>
   </si>
 </sst>
 </file>
@@ -1012,10 +1015,10 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1109,6 +1112,9 @@
       <c r="D4" t="s">
         <v>40</v>
       </c>
+      <c r="E4" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="F4" t="s">
         <v>41</v>
       </c>
@@ -1345,6 +1351,7 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{88017075-5373-454A-B1D0-C8C79B8564EC}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{772AC442-940E-AE41-8A04-291AD6FE3798}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{1962F67A-F81F-7B45-933E-71F665989C1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5400D4A4-BB7C-EA41-A286-B67094500E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551A1801-EFCC-544C-9310-0C247DC22AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -1018,7 +1018,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551A1801-EFCC-544C-9310-0C247DC22AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFBCD6A-BE13-6A4B-AF53-83C818D0C447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -267,7 +267,7 @@
     <t>There will be no class on February 27th.</t>
   </si>
   <si>
-    <t>https://github.com/jbryer/DAV5300-2024-Spring/blob/master/slides/2024-01-30-Probablity.pdf</t>
+    <t>https://github.com/jbryer/DAV5300-2024-Spring/blob/master/slides/2024-01-30-Probablity_and_Distributions.pdf</t>
   </si>
 </sst>
 </file>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFBCD6A-BE13-6A4B-AF53-83C818D0C447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDABABC-128F-8747-8CC3-086891CB124F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -267,7 +267,7 @@
     <t>There will be no class on February 27th.</t>
   </si>
   <si>
-    <t>https://github.com/jbryer/DAV5300-2024-Spring/blob/master/slides/2024-01-30-Probablity_and_Distributions.pdf</t>
+    <t>https://github.com/jbryer/DAV5300-2024-Spring/blob/master/slides/2024-01-30-Probability_and_Distributions.pdf</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDABABC-128F-8747-8CC3-086891CB124F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68DCF6B-A1A1-504A-B539-95A30D099A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="5900" yWindow="6320" windowWidth="24340" windowHeight="13320" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -237,10 +237,6 @@
 Homework: TBD</t>
   </si>
   <si>
-    <t>[Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/07_simple_linear_regression.zip)  
-Homework: TBD</t>
-  </si>
-  <si>
     <t>[Foundation for Inference Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/11_foundations_for_inference.zip) (*note there are two parts*)</t>
   </si>
   <si>
@@ -268,6 +264,13 @@
   </si>
   <si>
     <t>https://github.com/jbryer/DAV5300-2024-Spring/blob/master/slides/2024-01-30-Probability_and_Distributions.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/jbryer/DAV5300-2024-Spring/blob/master/slides/2024-02-06-Linear_Regression.pdf</t>
+  </si>
+  <si>
+    <t>[Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/07_simple_linear_regression.zip)  
+Homework: 7.4, 7.8, 7.20, 7.22</t>
   </si>
 </sst>
 </file>
@@ -1015,10 +1018,10 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1090,7 +1093,7 @@
         <v>61</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>62</v>
@@ -1113,13 +1116,13 @@
         <v>40</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1135,11 +1138,14 @@
       <c r="D5" t="s">
         <v>37</v>
       </c>
+      <c r="E5" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="F5" t="s">
         <v>51</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1179,7 +1185,7 @@
         <v>53</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1193,7 +1199,7 @@
         <v>45354</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1213,7 +1219,7 @@
         <v>63</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -1233,7 +1239,7 @@
         <v>54</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -1253,7 +1259,7 @@
         <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -1273,7 +1279,7 @@
         <v>56</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1352,6 +1358,7 @@
     <hyperlink ref="E2" r:id="rId1" xr:uid="{88017075-5373-454A-B1D0-C8C79B8564EC}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{772AC442-940E-AE41-8A04-291AD6FE3798}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{1962F67A-F81F-7B45-933E-71F665989C1E}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{EADC0DDC-DA8B-B443-9441-3707D719DF85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68DCF6B-A1A1-504A-B539-95A30D099A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB098C1-637A-8949-B81E-D4D75C27F1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="6320" windowWidth="24340" windowHeight="13320" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="5900" yWindow="6320" windowWidth="31820" windowHeight="19160" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -1021,7 +1021,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1159,13 +1159,13 @@
         <v>45340</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1179,13 +1179,13 @@
         <v>45347</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB098C1-637A-8949-B81E-D4D75C27F1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75607A3-9AC6-BC44-863C-2E363C999C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="6320" windowWidth="31820" windowHeight="19160" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="14420" yWindow="7740" windowWidth="31820" windowHeight="19160" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -252,10 +252,6 @@
     <t>https://github.com/jbryer/DAV5300-2024-Spring/blob/master/slides/2024-01-23-Intro_to_Data.pdf</t>
   </si>
   <si>
-    <t>[Logistic Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/09_logistic_regression.zip)
-Homework: TBD</t>
-  </si>
-  <si>
     <t>[Probability Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/03_probability.zip)  
 Homework (Note these are from the OpenIntro Statistics book): 3.7, 3.17, 3.25, 3.33, 3.37</t>
   </si>
@@ -271,6 +267,10 @@
   <si>
     <t>[Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/07_simple_linear_regression.zip)  
 Homework: 7.4, 7.8, 7.20, 7.22</t>
+  </si>
+  <si>
+    <t>[Logistic Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/09_logistic_regression.zip)
+Homework: 9.2, 9.4, 9.6</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1116,13 +1116,13 @@
         <v>40</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1139,13 +1139,13 @@
         <v>37</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
         <v>51</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1165,7 +1165,7 @@
         <v>53</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1199,7 +1199,7 @@
         <v>45354</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="102" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75607A3-9AC6-BC44-863C-2E363C999C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FAC1B9-87A3-D64E-86B4-217F75673371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14420" yWindow="7740" windowWidth="31820" windowHeight="19160" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -233,10 +233,6 @@
     <t>IMStat Chapters [11](https://openintro-ims.netlify.app/foundations-randomization), [12](https://openintro-ims.netlify.app/foundations-bootstrapping), and [13](https://openintro-ims.netlify.app/foundations-mathematical)</t>
   </si>
   <si>
-    <t>[Multiple Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/08_multiple_regression.zip)  
-Homework: TBD</t>
-  </si>
-  <si>
     <t>[Foundation for Inference Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/11_foundations_for_inference.zip) (*note there are two parts*)</t>
   </si>
   <si>
@@ -269,7 +265,11 @@
 Homework: 7.4, 7.8, 7.20, 7.22</t>
   </si>
   <si>
-    <t>[Logistic Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/09_logistic_regression.zip)
+    <t>[Multiple Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/08_multiple_regression.zip)   
+Homework: TBD</t>
+  </si>
+  <si>
+    <t>[Logistic Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/09_logistic_regression.zip)  
 Homework: 9.2, 9.4, 9.6</t>
   </si>
 </sst>
@@ -1021,7 +1021,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1093,7 +1093,7 @@
         <v>61</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>62</v>
@@ -1116,13 +1116,13 @@
         <v>40</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1139,13 +1139,13 @@
         <v>37</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
         <v>51</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1185,7 +1185,7 @@
         <v>52</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1199,7 +1199,7 @@
         <v>45354</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1219,7 +1219,7 @@
         <v>63</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -1239,7 +1239,7 @@
         <v>54</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -1259,7 +1259,7 @@
         <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -1279,7 +1279,7 @@
         <v>56</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FAC1B9-87A3-D64E-86B4-217F75673371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA83FBE-83D4-CC4B-BAD7-7EEEDE8B9EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14420" yWindow="7740" windowWidth="31820" windowHeight="19160" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -265,12 +265,21 @@
 Homework: 7.4, 7.8, 7.20, 7.22</t>
   </si>
   <si>
-    <t>[Multiple Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/08_multiple_regression.zip)   
-Homework: TBD</t>
-  </si>
-  <si>
     <t>[Logistic Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/09_logistic_regression.zip)  
 Homework: 9.2, 9.4, 9.6</t>
+  </si>
+  <si>
+    <t>https://github.com/jbryer/DAV5300-2024-Spring/blob/master/slides/2024-02-13-Logistic_Regression.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/jbryer/DAV5300-2024-Spring/blob/master/slides/2024-02-20-Multiple_Regression.pdf</t>
+  </si>
+  <si>
+    <t>[Multiple Regression Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/08_multiple_regression.zip)   
+Homework: 8.4, 8.6, 8.10</t>
+  </si>
+  <si>
+    <t>[Data Project Proposal](https://github.com/jbryer/DAV5300-2024-Spring/tree/master/project/data_project.md)</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1030,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1161,11 +1170,14 @@
       <c r="D6" t="s">
         <v>39</v>
       </c>
+      <c r="E6" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="F6" t="s">
         <v>53</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1181,14 +1193,17 @@
       <c r="D7" t="s">
         <v>38</v>
       </c>
+      <c r="E7" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="F7" t="s">
         <v>52</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1200,6 +1215,9 @@
       </c>
       <c r="D8" t="s">
         <v>70</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1359,6 +1377,8 @@
     <hyperlink ref="E3" r:id="rId2" xr:uid="{772AC442-940E-AE41-8A04-291AD6FE3798}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{1962F67A-F81F-7B45-933E-71F665989C1E}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{EADC0DDC-DA8B-B443-9441-3707D719DF85}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{E84C4455-2353-9B4C-A862-2CA9D73A0C70}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{B68EDD1F-9EFA-9F42-83DC-347D5F304B3D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA83FBE-83D4-CC4B-BAD7-7EEEDE8B9EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0674DB9B-D1A1-2A40-A59D-C7E07D7C5097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0674DB9B-D1A1-2A40-A59D-C7E07D7C5097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F86650-186C-5A44-A5C1-4EF522E7C3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>Foundation for Inference / Central Limit Theorem</t>
-  </si>
-  <si>
-    <t>Introduction to Predictive Modeling</t>
   </si>
   <si>
     <t>Bayesian Analysis</t>
@@ -233,9 +230,6 @@
     <t>IMStat Chapters [11](https://openintro-ims.netlify.app/foundations-randomization), [12](https://openintro-ims.netlify.app/foundations-bootstrapping), and [13](https://openintro-ims.netlify.app/foundations-mathematical)</t>
   </si>
   <si>
-    <t>[Foundation for Inference Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/11_foundations_for_inference.zip) (*note there are two parts*)</t>
-  </si>
-  <si>
     <t>[Inference for Categorical Data Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/16_inference_for_categorial_data.zip)</t>
   </si>
   <si>
@@ -280,6 +274,17 @@
   </si>
   <si>
     <t>[Data Project Proposal](https://github.com/jbryer/DAV5300-2024-Spring/tree/master/project/data_project.md)</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>https://github.com/jbryer/DAV5300-2024-Spring/blob/master/slides/2024-03-05-Foundation_for_Inference.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Foundation for Inference Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/11_foundations_for_inference.zip) (*note there are two parts*)  
+Homework: 11.8, 12.8, 13.2
+</t>
   </si>
 </sst>
 </file>
@@ -1027,10 +1032,10 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1044,7 +1049,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -1076,16 +1081,16 @@
         <v>45312</v>
       </c>
       <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="119" x14ac:dyDescent="0.2">
@@ -1099,16 +1104,16 @@
         <v>45319</v>
       </c>
       <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="136" x14ac:dyDescent="0.2">
@@ -1125,13 +1130,13 @@
         <v>40</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1148,13 +1153,13 @@
         <v>37</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1171,13 +1176,13 @@
         <v>39</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1194,13 +1199,13 @@
         <v>38</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -1214,13 +1219,13 @@
         <v>45354</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1233,11 +1238,14 @@
       <c r="D9" t="s">
         <v>46</v>
       </c>
+      <c r="E9" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -1254,10 +1262,10 @@
         <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -1274,10 +1282,10 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -1294,10 +1302,10 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1311,7 +1319,7 @@
         <v>45389</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1325,7 +1333,7 @@
         <v>45396</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1379,6 +1387,7 @@
     <hyperlink ref="E5" r:id="rId4" xr:uid="{EADC0DDC-DA8B-B443-9441-3707D719DF85}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{E84C4455-2353-9B4C-A862-2CA9D73A0C70}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{B68EDD1F-9EFA-9F42-83DC-347D5F304B3D}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{2F300788-00F3-124F-8BD8-F4BA354F8149}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F86650-186C-5A44-A5C1-4EF522E7C3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F0F52A-C702-FA41-AAFC-31DC65D00A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -230,9 +230,6 @@
     <t>IMStat Chapters [11](https://openintro-ims.netlify.app/foundations-randomization), [12](https://openintro-ims.netlify.app/foundations-bootstrapping), and [13](https://openintro-ims.netlify.app/foundations-mathematical)</t>
   </si>
   <si>
-    <t>[Inference for Categorical Data Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/16_inference_for_categorial_data.zip)</t>
-  </si>
-  <si>
     <t>[Inference for Numerical Data Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/19_inference_for_numerical_data.zip)</t>
   </si>
   <si>
@@ -285,6 +282,10 @@
     <t xml:space="preserve">[Foundation for Inference Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/11_foundations_for_inference.zip) (*note there are two parts*)  
 Homework: 11.8, 12.8, 13.2
 </t>
+  </si>
+  <si>
+    <t>[Inference for Categorical Data Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/16_inference_for_categorial_data.zip)  
+Homework: 16.4, 17.2, 18.2</t>
   </si>
 </sst>
 </file>
@@ -387,9 +388,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -427,7 +428,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -533,7 +534,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -675,7 +676,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1032,10 +1033,10 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1107,7 +1108,7 @@
         <v>60</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>61</v>
@@ -1130,13 +1131,13 @@
         <v>40</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1153,13 +1154,13 @@
         <v>37</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1176,13 +1177,13 @@
         <v>39</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
         <v>52</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1199,13 +1200,13 @@
         <v>38</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
         <v>51</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -1219,10 +1220,10 @@
         <v>45354</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="136" x14ac:dyDescent="0.2">
@@ -1239,16 +1240,16 @@
         <v>46</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>53</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -1285,7 +1286,7 @@
         <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -1305,7 +1306,7 @@
         <v>55</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1319,7 +1320,7 @@
         <v>45389</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F0F52A-C702-FA41-AAFC-31DC65D00A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7578340F-E734-0A48-BB78-ACC471E9F276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="81">
   <si>
     <t>Date</t>
   </si>
@@ -271,9 +271,6 @@
   </si>
   <si>
     <t>[Data Project Proposal](https://github.com/jbryer/DAV5300-2024-Spring/tree/master/project/data_project.md)</t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
   <si>
     <t>https://github.com/jbryer/DAV5300-2024-Spring/blob/master/slides/2024-03-05-Foundation_for_Inference.pdf</t>
@@ -286,6 +283,13 @@
   <si>
     <t>[Inference for Categorical Data Lab](https://github.com/jbryer/DAV5300-2024-Spring/raw/master/labs/16_inference_for_categorial_data.zip)  
 Homework: 16.4, 17.2, 18.2</t>
+  </si>
+  <si>
+    <t>Please sign-up here: https://docs.google.com/spreadsheets/d/1mMAHx0Lr-t0VgXxn5-ex_fZOgf0Di_IkKfHRZw8mttc/edit?usp=sharing  
+Zoom link: https://zoom.us/my/jbryer</t>
+  </si>
+  <si>
+    <t>Project Conferences (no in-person class)</t>
   </si>
 </sst>
 </file>
@@ -1033,10 +1037,10 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1240,13 +1244,13 @@
         <v>46</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
         <v>62</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1266,7 +1270,7 @@
         <v>53</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -1309,7 +1313,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1320,7 +1324,10 @@
         <v>45389</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>80</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7578340F-E734-0A48-BB78-ACC471E9F276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58558554-5C45-9348-BEEC-051FAD41C354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -285,11 +285,17 @@
 Homework: 16.4, 17.2, 18.2</t>
   </si>
   <si>
-    <t>Please sign-up here: https://docs.google.com/spreadsheets/d/1mMAHx0Lr-t0VgXxn5-ex_fZOgf0Di_IkKfHRZw8mttc/edit?usp=sharing  
+    <t>Project Conferences (no in-person class)</t>
+  </si>
+  <si>
+    <t>[Click here to sign-up](https://docs.google.com/spreadsheets/d/1mMAHx0Lr-t0VgXxn5-ex_fZOgf0Di_IkKfHRZw8mttc/edit?usp=sharing)  
 Zoom link: https://zoom.us/my/jbryer</t>
   </si>
   <si>
-    <t>Project Conferences (no in-person class)</t>
+    <t>NO CLASS</t>
+  </si>
+  <si>
+    <t>https://github.com/jbryer/DAV5300-2024-Spring/blob/master/slides/2024-03-12-Inference_for_Categorical_Data.pdf</t>
   </si>
 </sst>
 </file>
@@ -1037,10 +1043,10 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1224,6 +1230,9 @@
         <v>45354</v>
       </c>
       <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
         <v>67</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -1266,6 +1275,9 @@
       <c r="D10" t="s">
         <v>42</v>
       </c>
+      <c r="E10" s="10" t="s">
+        <v>82</v>
+      </c>
       <c r="F10" t="s">
         <v>53</v>
       </c>
@@ -1324,10 +1336,10 @@
         <v>45389</v>
       </c>
       <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1396,6 +1408,7 @@
     <hyperlink ref="E6" r:id="rId5" xr:uid="{E84C4455-2353-9B4C-A862-2CA9D73A0C70}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{B68EDD1F-9EFA-9F42-83DC-347D5F304B3D}"/>
     <hyperlink ref="E9" r:id="rId7" xr:uid="{2F300788-00F3-124F-8BD8-F4BA354F8149}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{0C63D62E-6735-E946-BF41-61BD10AE180D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58558554-5C45-9348-BEEC-051FAD41C354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6B2531-E1EF-964A-BC34-4EFB7ECB46F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="0" yWindow="6260" windowWidth="30240" windowHeight="13380" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
   <si>
     <t>Date</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>https://github.com/jbryer/DAV5300-2024-Spring/blob/master/slides/2024-03-12-Inference_for_Categorical_Data.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/jbryer/DAV5300-2024-Spring/blob/master/slides/2024-03-19-Inference_for_Numerical_Data.pdf</t>
   </si>
 </sst>
 </file>
@@ -1043,10 +1046,10 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1298,6 +1301,9 @@
       <c r="D11" t="s">
         <v>43</v>
       </c>
+      <c r="E11" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="F11" t="s">
         <v>54</v>
       </c>
@@ -1409,6 +1415,7 @@
     <hyperlink ref="E7" r:id="rId6" xr:uid="{B68EDD1F-9EFA-9F42-83DC-347D5F304B3D}"/>
     <hyperlink ref="E9" r:id="rId7" xr:uid="{2F300788-00F3-124F-8BD8-F4BA354F8149}"/>
     <hyperlink ref="E10" r:id="rId8" xr:uid="{0C63D62E-6735-E946-BF41-61BD10AE180D}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{13202BAC-FAEA-A948-A1EA-3D1E77ADBA55}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6B2531-E1EF-964A-BC34-4EFB7ECB46F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E97197-DA65-9440-B499-8E3EB56250CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="6260" windowWidth="30240" windowHeight="13380" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -170,9 +170,6 @@
     <t>Inference for Numerical Data</t>
   </si>
   <si>
-    <t>ANOVA</t>
-  </si>
-  <si>
     <t>Poster Session</t>
   </si>
   <si>
@@ -299,6 +296,9 @@
   </si>
   <si>
     <t>https://github.com/jbryer/DAV5300-2024-Spring/blob/master/slides/2024-03-19-Inference_for_Numerical_Data.pdf</t>
+  </si>
+  <si>
+    <t>Classification and Regression Trees</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1049,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1063,7 +1063,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>45312</v>
       </c>
       <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="119" x14ac:dyDescent="0.2">
@@ -1118,16 +1118,16 @@
         <v>45319</v>
       </c>
       <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="136" x14ac:dyDescent="0.2">
@@ -1144,13 +1144,13 @@
         <v>40</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1167,13 +1167,13 @@
         <v>37</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1190,13 +1190,13 @@
         <v>39</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1213,13 +1213,13 @@
         <v>38</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -1233,13 +1233,13 @@
         <v>45354</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="136" x14ac:dyDescent="0.2">
@@ -1253,16 +1253,16 @@
         <v>45361</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -1279,13 +1279,13 @@
         <v>42</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -1302,13 +1302,13 @@
         <v>43</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -1322,13 +1322,13 @@
         <v>45382</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -1342,10 +1342,10 @@
         <v>45389</v>
       </c>
       <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1359,7 +1359,7 @@
         <v>45396</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1373,7 +1373,7 @@
         <v>45403</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E97197-DA65-9440-B499-8E3EB56250CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D01C92-B505-9543-88A2-61F6F6D4B7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="6260" windowWidth="30240" windowHeight="13380" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>Classification and Regression Trees</t>
+  </si>
+  <si>
+    <t>https://github.com/jbryer/DAV5300-2024-Spring/blob/master/slides/CART-Methods.pdf</t>
   </si>
 </sst>
 </file>
@@ -1046,10 +1049,10 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1324,6 +1327,9 @@
       <c r="D12" t="s">
         <v>83</v>
       </c>
+      <c r="E12" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="F12" t="s">
         <v>54</v>
       </c>
@@ -1416,6 +1422,7 @@
     <hyperlink ref="E9" r:id="rId7" xr:uid="{2F300788-00F3-124F-8BD8-F4BA354F8149}"/>
     <hyperlink ref="E10" r:id="rId8" xr:uid="{0C63D62E-6735-E946-BF41-61BD10AE180D}"/>
     <hyperlink ref="E11" r:id="rId9" xr:uid="{13202BAC-FAEA-A948-A1EA-3D1E77ADBA55}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{B8F945CA-864D-8A46-AB73-93570F56A29C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Spring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D01C92-B505-9543-88A2-61F6F6D4B7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D666D40-96DE-F84D-8923-799BE68B7D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6260" windowWidth="30240" windowHeight="13380" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="10120" yWindow="11860" windowWidth="30240" windowHeight="13380" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -1052,7 +1052,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1349,6 +1349,9 @@
       </c>
       <c r="D13" t="s">
         <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>79</v>
